--- a/data/GRNmap_input_workbooks/15-genes_20-edges_NW-dCIN5-fam_no-strains-added_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/15-genes_20-edges_NW-dCIN5-fam_no-strains-added_Sigmoid_estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="1200" windowWidth="19580" windowHeight="14360" tabRatio="500" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="8400" yWindow="0" windowWidth="24400" windowHeight="14320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="3" r:id="rId1"/>
@@ -242,7 +242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -278,11 +278,76 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -305,8 +370,10 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -323,6 +390,39 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -339,6 +439,39 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -678,7 +811,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -700,79 +833,125 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1">
+        <v>-0.22359999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>-0.20100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>-0.19259999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>-0.32240000000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>-0.27179999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="14">
+        <v>-0.14599999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1">
+        <v>-0.4078</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="1">
+        <v>-0.21659999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="1">
+        <v>-2.46E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>-0.69320000000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="14">
+        <v>-0.14000000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>-0.32240000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>-0.17319999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="1">
+        <v>-0.72960000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="1">
+        <v>-0.1042</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -785,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -796,7 +975,7 @@
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -804,124 +983,124 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.111797932348378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+        <v>-0.1118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.10045611312463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+        <v>-0.10050000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>-9.6270441744436802E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1">
+        <v>-9.6299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.16119701873487099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1">
+        <v>-0.16120000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.135911211874499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1">
+        <v>-0.13589999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>-6.7955605937249544E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1">
+      <c r="B7" s="15">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>-0.20386681781174901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1">
+        <v>-0.2039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.108304246962491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1">
+        <v>-0.10829999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>-6.7955605937249544E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1">
+      <c r="B10" s="1">
+        <v>-1.23E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.34657359027997298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1">
+        <v>-0.34660000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>-7.0014866723226807E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1">
+      <c r="B12" s="14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>-0.16119701873487099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="1" customFormat="1">
+        <v>-0.16120000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>-8.6643397569993202E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="1" customFormat="1">
+        <v>-8.6599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.36481430555786598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="1" customFormat="1">
+        <v>-0.36480000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>-5.21163293654094E-2</v>
+        <v>-5.21E-2</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +1119,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -996,43 +1175,43 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.6139</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>-1.0689</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.19059999999999999</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>-0.39800000000000002</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.5827</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>-2.52E-2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>-0.3947</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>-0.62639999999999996</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>0.3377</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>0.81699999999999995</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>0.55659999999999998</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>-0.43569999999999998</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>-1.2497</v>
       </c>
     </row>
@@ -1040,43 +1219,43 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>-0.13730000000000001</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1.2385999999999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1.3909</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>-0.4224</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.54610000000000003</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1.0285</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>1.2338</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>2.2159</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>2.1796000000000002</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>0.84470000000000001</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>2.4687000000000001</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>1.4784999999999999</v>
       </c>
     </row>
@@ -1084,43 +1263,43 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.50639999999999996</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.89049999999999996</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>-0.1242</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>-1.1405000000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.38369999999999999</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.85250000000000004</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>-0.32729999999999998</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>-0.29820000000000002</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>-0.315</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>-0.59989999999999999</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>-0.94469999999999998</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>-0.35849999999999999</v>
       </c>
     </row>
@@ -1128,43 +1307,43 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>-1.3141</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.39389999999999997</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.1439</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>-0.51329999999999998</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>-0.70040000000000002</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>-0.2467</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>1.4085000000000001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>0.97330000000000005</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>0.65039999999999998</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>0.20250000000000001</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>0.89239999999999997</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.90069999999999995</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>0.1953</v>
       </c>
     </row>
@@ -1172,43 +1351,43 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.51380000000000003</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1.9214</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>-0.88590000000000002</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>-2.6541999999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1.5184</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.27939999999999998</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>-2.5135000000000001</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>-1.1181000000000001</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0.2225</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>-1.0353000000000001</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-0.2074</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>-1.8463000000000001</v>
       </c>
     </row>
@@ -1216,43 +1395,43 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>-0.36580000000000001</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.37209999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>-0.58630000000000004</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.9587</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1.2197</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.89229999999999998</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>1.2168000000000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0.89400000000000002</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>0.99239999999999995</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>2.0937999999999999</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>0.36459999999999998</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0.54920000000000002</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>1.0669999999999999</v>
       </c>
     </row>
@@ -1260,43 +1439,43 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>-1.0625</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.92459999999999998</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.1666</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>-0.26960000000000001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.35849999999999999</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.95140000000000002</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>0.12330000000000001</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>1.2802</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>-0.68079999999999996</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0.76339999999999997</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>1.3451</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>0.83550000000000002</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>-0.12709999999999999</v>
       </c>
     </row>
@@ -1304,43 +1483,43 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>-2.5809000000000002</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>-0.61519999999999997</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>-1.0938000000000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>-0.97330000000000005</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>-1.0881000000000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.61019999999999996</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>-0.83689999999999998</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>-0.40310000000000001</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>0.29570000000000002</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>-2.0598000000000001</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>-1.2113</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>0.54579999999999995</v>
       </c>
     </row>
@@ -1348,43 +1527,43 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>-0.26690000000000003</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.37019999999999997</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>-0.61339999999999995</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1.004</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>-0.14119999999999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>-0.37090000000000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.47349999999999998</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>0.61880000000000002</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>-0.2072</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>0.55589999999999995</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>0.58950000000000002</v>
       </c>
     </row>
@@ -1392,43 +1571,43 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2.1524999999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1.2788999999999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>-0.4526</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.69169999999999998</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.53420000000000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>2.2597999999999998</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>-0.92320000000000002</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0.82930000000000004</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>1.3828</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>0.90039999999999998</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>0.88880000000000003</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>-1.0367</v>
       </c>
     </row>
@@ -1436,43 +1615,43 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>-1.6758</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>-0.49859999999999999</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.38</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>-0.12740000000000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>-2.5268999999999999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>-1.9189000000000001</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.54430000000000001</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>4.07E-2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>-1.3691</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>-2.6627000000000001</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>0.20280000000000001</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>-0.27479999999999999</v>
       </c>
     </row>
@@ -1480,43 +1659,43 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>-0.76749999999999996</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>-0.20330000000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>-0.91059999999999997</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>-0.72340000000000004</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>-1.9049</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>-0.25700000000000001</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>-0.16869999999999999</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>-1.0667</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>0.1028</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>-2.86E-2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>0.4798</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
@@ -1524,43 +1703,43 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>-1.1269</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>-0.21</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>-0.66759999999999997</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>-1.6963999999999999</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>-0.34960000000000002</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>1.2371000000000001</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>0.94320000000000004</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>-0.36209999999999998</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>-1.8086</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>0.66169999999999995</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>0.61919999999999997</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>0.20499999999999999</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>-0.72499999999999998</v>
       </c>
     </row>
@@ -1568,43 +1747,43 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>-0.20250000000000001</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>-1.0587</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>-0.64019999999999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>-2.2532000000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>-1.6116999999999999</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>-0.104</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>-0.1487</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>-0.93940000000000001</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>-0.59009999999999996</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>0.13289999999999999</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>-0.72219999999999995</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>-0.51170000000000004</v>
       </c>
     </row>
@@ -1612,43 +1791,43 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0.65939999999999999</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.61350000000000005</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.32379999999999998</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>-0.37119999999999997</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>1.4712000000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>1.9049</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>0.59899999999999998</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>-0.2354</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>2.9605999999999999</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>3.5569000000000002</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>1.3863000000000001</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>2.6346000000000003</v>
       </c>
     </row>
@@ -1668,7 +1847,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1723,40 +1902,40 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>-0.17180000000000001</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>-0.2792</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>-0.17519999999999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>-0.68840000000000001</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>-0.24360000000000001</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.15809999999999999</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>-0.42530000000000001</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>-0.17030000000000001</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>0.56820000000000004</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>0.1646</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>-0.32019999999999998</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>-0.38879999999999998</v>
       </c>
     </row>
@@ -1764,40 +1943,40 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>-0.66849999999999998</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.40660000000000002</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>-0.43219999999999997</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>-0.1191</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>-0.38300000000000001</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.26929999999999998</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>-7.5700000000000003E-2</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>0.59750000000000003</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>7.8900000000000012E-2</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>-0.3216</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>0.4778</v>
       </c>
     </row>
@@ -1805,40 +1984,40 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>-0.3155</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1.4649000000000001</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>-0.80289999999999995</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.5141</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>-0.76539999999999997</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>-1.1456</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.50960000000000005</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>-0.29570000000000002</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>-0.22570000000000001</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>-0.94040000000000001</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>-1.3326</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>0.16889999999999999</v>
       </c>
     </row>
@@ -1846,40 +2025,40 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.96209999999999996</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>-0.3518</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.31009999999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>-0.15890000000000001</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.58689999999999998</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.48599999999999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.43419999999999997</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>1.0717000000000001</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>1.1548</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>0.54459999999999997</v>
       </c>
     </row>
@@ -1887,40 +2066,40 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.17119999999999999</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>-1.9531000000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>-0.21510000000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>-1.4630000000000001</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.30249999999999999</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>-2.2646000000000002</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>1.4417</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>-1.2318</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>-0.14030000000000001</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>-1.9814000000000001</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>-1.2117</v>
       </c>
     </row>
@@ -1928,40 +2107,40 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.33250000000000002</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0.29420000000000002</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>0.67030000000000001</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.71640000000000004</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.33739999999999998</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>0.35539999999999999</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>1.2329000000000001</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>0.2175</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>-0.2056</v>
       </c>
     </row>
@@ -1969,40 +2148,40 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>0.57640000000000002</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>-0.54890000000000005</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.24909999999999999</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.90359999999999996</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-0.5302</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>1.0787</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>-0.1371</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0.40110000000000001</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
@@ -2010,40 +2189,40 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>-0.64180000000000004</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>-5.11E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1.1284000000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>-0.63980000000000004</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>-0.40770000000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>-1.2483</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.64949999999999997</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>-1.0121</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>0.2271</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0.3589</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>0.57989999999999997</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>0.2697</v>
       </c>
     </row>
@@ -2051,40 +2230,40 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.58789999999999998</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1.5125</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.36570000000000003</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.68759999999999999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>-7.7499999999999999E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>-0.52200000000000002</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.30730000000000002</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>-0.36349999999999999</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>-0.12959999999999999</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>1.7000999999999999</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>0.14030000000000001</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
@@ -2092,40 +2271,40 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>1.0931999999999999</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0.47260000000000002</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1.1254999999999999</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.62629999999999997</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.52559999999999996</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>-0.33250000000000002</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>1.6525000000000001</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>-0.1135</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>0.61</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>0.67210000000000003</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>0.95820000000000005</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>0.31269999999999998</v>
       </c>
     </row>
@@ -2133,40 +2312,40 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1.2589999999999999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>1.0717000000000001</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>-1.9025000000000001</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>-0.44059999999999999</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.56589999999999996</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>1.258</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>0.49270000000000003</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>0.29249999999999998</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>1.6588000000000001</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>1.1318999999999999</v>
       </c>
     </row>
@@ -2174,40 +2353,40 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>-0.1331</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.1802</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>-0.32140000000000002</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>0.85260000000000002</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>-0.43319999999999997</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0.22489999999999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>-0.70350000000000001</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>-0.44190000000000002</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>0.92220000000000002</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>0.20899999999999999</v>
       </c>
     </row>
@@ -2215,40 +2394,40 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>-1.2421</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>0.33439999999999998</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>-0.73499999999999999</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.29349999999999998</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>-1.2684</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>-0.87819999999999998</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>1.0021</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>-0.76680000000000004</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>0.97960000000000003</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>-5.28E-2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>-0.86929999999999996</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>0.55789999999999995</v>
       </c>
     </row>
@@ -2256,40 +2435,40 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>-1.3433999999999999</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>-0.93540000000000001</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>-1.7083999999999999</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>-0.28220000000000001</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>-5.8900000000000001E-2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>-0.71579999999999999</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>-0.11550000000000001</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>-2.4802</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>0.66569999999999996</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>0.53159999999999996</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>-1.3987000000000001</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>0.29849999999999999</v>
       </c>
     </row>
@@ -2297,40 +2476,40 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>0.83440000000000003</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0.83979999999999999</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>0.91839999999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.47470000000000001</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>2.3845000000000001</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0.1525</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>0.65110000000000001</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>-0.82630000000000003</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>0.31130000000000002</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>-9.06E-2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>0.96989999999999998</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>-4.41E-2</v>
       </c>
     </row>
@@ -3181,7 +3360,7 @@
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3231,7 +3410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3331,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3381,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3431,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3481,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3531,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3581,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3631,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3681,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3731,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3781,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3831,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3881,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3931,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4028,7 +4207,7 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
     </row>
@@ -4036,7 +4215,7 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>100000000</v>
       </c>
     </row>
@@ -4044,7 +4223,7 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -4052,7 +4231,7 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>100000000</v>
       </c>
     </row>
@@ -4060,7 +4239,7 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -4076,7 +4255,7 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4195,7 +4374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
